--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/OREGON_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/OREGON_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D947"/>
+  <dimension ref="A1:D941"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C5">
@@ -483,7 +483,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C9">
@@ -680,7 +680,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C23">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C24">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C30">
@@ -1270,7 +1270,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C68">
@@ -1309,7 +1309,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1340,7 +1340,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C73">
@@ -1522,7 +1522,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1675,7 +1675,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C98">
@@ -1823,7 +1823,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C109">
@@ -1901,12 +1901,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C115">
@@ -1958,7 +1958,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C119">
@@ -2023,7 +2023,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C124">
@@ -2088,7 +2088,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C129">
@@ -2179,7 +2179,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C136">
@@ -2257,7 +2257,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C142">
@@ -2270,7 +2270,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C143">
@@ -2374,7 +2374,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C151">
@@ -2452,7 +2452,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C157">
@@ -2504,7 +2504,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C161">
@@ -2517,7 +2517,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C162">
@@ -2691,7 +2691,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C175">
@@ -2730,7 +2730,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C178">
@@ -2834,7 +2834,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C186">
@@ -2860,7 +2860,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C188">
@@ -2873,7 +2873,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C189">
@@ -2912,7 +2912,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C192">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C196">
@@ -2995,7 +2995,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C198">
@@ -3008,7 +3008,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C199">
@@ -3073,7 +3073,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C204">
@@ -3086,7 +3086,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C205">
@@ -3112,7 +3112,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C207">
@@ -3125,7 +3125,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C208">
@@ -3138,7 +3138,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C209">
@@ -3151,7 +3151,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C210">
@@ -3164,7 +3164,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Cochoapa el Grande</t>
+          <t>Cochoapa El Grande</t>
         </is>
       </c>
       <c r="C211">
@@ -3216,7 +3216,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C215">
@@ -3229,7 +3229,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C216">
@@ -3268,7 +3268,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C219">
@@ -3333,7 +3333,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C224">
@@ -3359,7 +3359,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C226">
@@ -3372,7 +3372,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C227">
@@ -3411,7 +3411,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C230">
@@ -3541,7 +3541,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C240">
@@ -3580,7 +3580,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C243">
@@ -3645,7 +3645,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C248">
@@ -3671,7 +3671,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C250">
@@ -3710,7 +3710,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C253">
@@ -3806,7 +3806,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C260">
@@ -3819,7 +3819,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C261">
@@ -3845,7 +3845,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C263">
@@ -3975,7 +3975,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C273">
@@ -4053,7 +4053,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C279">
@@ -4066,7 +4066,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C280">
@@ -4105,7 +4105,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C283">
@@ -4118,7 +4118,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C284">
@@ -4144,7 +4144,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C286">
@@ -4157,7 +4157,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C287">
@@ -4227,7 +4227,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C292">
@@ -4266,7 +4266,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C295">
@@ -4279,7 +4279,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C296">
@@ -4305,7 +4305,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C298">
@@ -4357,7 +4357,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C302">
@@ -4435,7 +4435,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C308">
@@ -4513,7 +4513,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C314">
@@ -4552,7 +4552,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C317">
@@ -4565,7 +4565,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C318">
@@ -4578,7 +4578,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C319">
@@ -4604,7 +4604,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C321">
@@ -4669,7 +4669,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C326">
@@ -4708,7 +4708,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C329">
@@ -4773,7 +4773,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C334">
@@ -4786,7 +4786,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C335">
@@ -4812,7 +4812,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C337">
@@ -4825,7 +4825,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C338">
@@ -4838,7 +4838,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C339">
@@ -4864,7 +4864,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C341">
@@ -4877,7 +4877,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C342">
@@ -4942,7 +4942,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C347">
@@ -4955,7 +4955,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C348">
@@ -4968,7 +4968,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C349">
@@ -4981,7 +4981,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C350">
@@ -5046,7 +5046,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C355">
@@ -5085,7 +5085,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C358">
@@ -5111,7 +5111,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C360">
@@ -5124,7 +5124,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C361">
@@ -5150,7 +5150,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -5337,7 +5337,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C377">
@@ -5363,7 +5363,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C379">
@@ -6013,7 +6013,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C429">
@@ -6395,7 +6395,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C458">
@@ -6543,7 +6543,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C469">
@@ -6595,7 +6595,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C473">
@@ -6686,7 +6686,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C480">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C492">
@@ -6930,7 +6930,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C498">
@@ -6956,7 +6956,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C500">
@@ -6969,7 +6969,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C501">
@@ -6982,7 +6982,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C502">
@@ -6995,7 +6995,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C503">
@@ -7008,7 +7008,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C504">
@@ -7021,7 +7021,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C505">
@@ -7034,7 +7034,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Huajuapan de León</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C506">
@@ -7047,7 +7047,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C507">
@@ -7099,7 +7099,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C511">
@@ -7125,7 +7125,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C513">
@@ -7138,7 +7138,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C514">
@@ -7151,7 +7151,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C515">
@@ -7164,7 +7164,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C516">
@@ -7177,7 +7177,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C517">
@@ -7190,7 +7190,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C518">
@@ -7476,7 +7476,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C540">
@@ -7515,7 +7515,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C543">
@@ -7684,7 +7684,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C556">
@@ -7905,7 +7905,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C573">
@@ -8113,7 +8113,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C589">
@@ -8269,7 +8269,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C601">
@@ -8334,7 +8334,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C606">
@@ -8854,7 +8854,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C646">
@@ -8906,7 +8906,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C650">
@@ -8919,7 +8919,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C651">
@@ -8932,7 +8932,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C652">
@@ -8945,7 +8945,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C653">
@@ -8958,7 +8958,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C654">
@@ -8971,7 +8971,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C655">
@@ -9010,7 +9010,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C658">
@@ -9353,7 +9353,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C684">
@@ -9405,7 +9405,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C688">
@@ -9470,7 +9470,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C693">
@@ -9483,7 +9483,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C694">
@@ -9535,7 +9535,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C698">
@@ -9730,7 +9730,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C713">
@@ -9756,7 +9756,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C715">
@@ -9769,7 +9769,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C716">
@@ -9821,7 +9821,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C720">
@@ -10034,7 +10034,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C736">
@@ -10047,7 +10047,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C737">
@@ -10112,7 +10112,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C742">
@@ -10125,7 +10125,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C743">
@@ -10151,7 +10151,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C745">
@@ -10265,7 +10265,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C753">
@@ -10343,7 +10343,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C759">
@@ -10979,7 +10979,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C806">
@@ -10992,7 +10992,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C807">
@@ -11005,7 +11005,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C808">
@@ -11109,7 +11109,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -11153,7 +11153,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C819">
@@ -11257,7 +11257,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C827">
@@ -11335,7 +11335,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C833">
@@ -11465,7 +11465,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C843">
@@ -11504,7 +11504,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C846">
@@ -11582,7 +11582,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C852">
@@ -11621,7 +11621,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C855">
@@ -11660,7 +11660,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C858">
@@ -11673,7 +11673,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C859">
@@ -11699,7 +11699,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C861">
@@ -11790,7 +11790,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C868">
@@ -11881,7 +11881,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C875">
@@ -12115,7 +12115,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C893">
@@ -12515,7 +12515,7 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C923">
@@ -12567,7 +12567,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C927">
@@ -12580,7 +12580,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C928">
@@ -12632,7 +12632,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C932">
@@ -12645,7 +12645,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C933">
@@ -12697,7 +12697,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C937">
@@ -12749,7 +12749,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C941">
@@ -12757,41 +12757,6 @@
       </c>
       <c r="D941">
         <v>1</v>
-      </c>
-    </row>
-    <row r="943">
-      <c r="A943" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="944">
-      <c r="A944" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="945">
-      <c r="A945" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="946">
-      <c r="A946" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="947">
-      <c r="A947" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>
